--- a/manual.xlsx
+++ b/manual.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijung\PycharmProjects\Load_Spectrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A21181-DFD0-4AD0-8E45-9AF0C1A582F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA9C29E-2856-43E0-B6A2-BD95899F6ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D960881-CEBA-4B13-9696-05E483397A48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6D960881-CEBA-4B13-9696-05E483397A48}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Interface" sheetId="1" r:id="rId1"/>
+    <sheet name="설정방법" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -394,8 +395,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9921FC81-D07D-40FD-BC52-B33AF2A57A53}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF67905-9AC7-4269-AA98-30D78D3444FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/manual.xlsx
+++ b/manual.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijung\PycharmProjects\Load_Spectrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA9C29E-2856-43E0-B6A2-BD95899F6ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8DCAD6-02EF-4415-8EA8-96A2A8D91D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6D960881-CEBA-4B13-9696-05E483397A48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D960881-CEBA-4B13-9696-05E483397A48}"/>
   </bookViews>
   <sheets>
     <sheet name="Interface" sheetId="1" r:id="rId1"/>
-    <sheet name="설정방법" sheetId="2" r:id="rId2"/>
+    <sheet name="파일 송수신" sheetId="4" r:id="rId2"/>
+    <sheet name="설정방법" sheetId="2" r:id="rId3"/>
+    <sheet name="예시" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,9 +36,439 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+  <si>
+    <t>&lt;초기화면&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;경로 제어 예시&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 찾으려는 부분의 매뉴얼은 EQP/Local+Number로 Ctrl+F 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) EQP GrobBox의 Load Status(3) 매뉴얼 보려면 Ctrl+F → EQP_3 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0. 프로그램 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver 211010_1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFCC00FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기존 문제점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 기존 Radmin, SEAM을 통한 설비 ↔ 개인PC 간 Data 송수신시 설비별로 파일 송수신 창을 반복하여 켰다 끄면서 접속해야 하는 번거로움 존재</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFCC00FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 기존 파일 송수신 기능과 모든 설비의 네트워크를 통합하여 하나의 프로그램에서 모든 설비와 개인PC 간 데이터 송수신을 가능하게 하는 프로그램 개발</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFCC00FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>한계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Radmin, SEAM 파일 송수신 속도에 비해 느리며, 대용량 파일 송수신에 부적합할 것으로 예상 / 파일 Load 중인 상태를 알기 어려움(매뉴얼 EQP_3 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">※ 파일 송수신 매뉴얼은 '파일 송수신' Sheet Tap 참고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQP_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line - EQP - Drive를 선택하여 설비로 FTP 접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileZilla 설정 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Line - EQP 정보는 'EQP 등록' Push 버튼을 누르면 확인 및 수정 가능 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Drive는 기본적으로 D, E, C가 있으며 Drive를 선택할 때 FTP에 접속되고 Path1에 파일 리스트 표시됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 잘못된 IP, 잘못된 FTP 계정 정보 등 인터락 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 IP 또는 설비 PC 이상으로 접속 불가 시 인터락 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQP_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQP → Local 다운 시 파일 확장자 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 미선택 / all 선택 시 확장자 미지정(모든 확장자 파일 가져옴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- ex. xlsm, txt 선택 시 해당 확장자 파일만 가져옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 확장자 정보 등록은 '확장자 등록' Push 버튼 누르면 확인 및 수정 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQP, 확장자 설정 및 사용자 매뉴얼 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- EQP GroupBox에 표시되는 Line-EQP-IP 정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- S5_F1 / S5_Aleris와 같이 Line Group 임의 설정 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Line,EQP,IP 와 같은 형식으로 하행 추가 하면 반영됨(정렬할 필요 X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQP 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 다운로드 할 때 Filter할 확장자 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 하행 추가 하면 반영됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 맨 위의 행 ext, all 변경하면 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이 엑셀 시트(manual.xlsx) 켜짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단축키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 프로그램 내 설정된 단축키에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 변경 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Push 버튼을 통해 Open된 txt, xlsx File은 프로그램이 종료되면 자동으로 종료됨, 프로그램이 꺼진 상태에서도 파일을 보려면 exe파일 있는 경로에서 File Open 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQP_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- IDLE : 초기상태, Load 후 항목 또는 바탕 클릭하면 IDLE로 바뀜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- END : 파일 Load가 완료되면 END로 바뀜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 중복되는 파일을 다운 중일때만 RUN으로 바뀜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 중복되지 않은 파일 Load시에는 RUN 상태를 알 수 없는 한계가 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 중복되지 않은 파일의 Load가 시작될 때 계속 IDLE 상태를 유지하며 완료가 되어야 END로 바뀜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- FTP Load 속도가 느리거나 대용량 파일을 Load 시 프로그램 '응답없음' 발생할 수 있는데 Load가 완료되어야 END로 전환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQP_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQP 경로 제어 시 현재 경로를 ftp 설비 IP주소와 함께 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQP_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path1, path2, path3, path4 경로 제어 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Line - EQP - Drive를 클릭하면 Drive 내 파일 List가 Path1에 표시됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- 폴더를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>더블클릭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하면 다음 경로의 파일 List가 Path1,2,3,4,5순서로 표시됨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. Line - EQP - Drive 순으로 클릭</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(마우스 왼쪽 클릭)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 파일을 더블클릭할 경우 인터락 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQP_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path5 이후의 경로 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- path5에서는 윈도우 탐색창처럼 경로 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 폴더를 더블클릭하면 다음 경로를 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 바로 위의 ◀, ▶ 버튼은 뒤로가기, 앞으로가기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path 제어 부가 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path5 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path1,2,3,4,5 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- path5의 경로 뒤로가기, 앞으로가기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 최초의 path5 경로 이전으로 뒤로가기 불가(그전의 경로를 보려면 path4 이전 경로로 확인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- path1,2,3,4,5에서 모두 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 마지막으로 선택된 path 경로에서 동작함 *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex1) Path3 활성화 상태에서 새폴더 눌렀을 때 → Path3에 New_folder 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex2) Path3 활성화 상태에서 Path3의 New_folder 삭제(복수 선택 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ Path3의 New_folder 선택 후 삭제 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ Path3에서 아무것도 선택하지 않고 삭제 누르면 아래 인터락 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQP_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ Path3 활성화 상태에서 Path2 파일(폴더) 삭제 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ 반드시 삭제하려는 파일(폴더)가 있는 Path를 활성화한 다음 삭제해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ Path3 활성화 상태에서 Path2 파일 선택 후 삭제 눌러도 Path2 아이템이 아닌 Path3 아이템이 삭제됨 : 파일 삭제는 무조건 현재 활성화경로 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex3) Path3 활성화 상태에서 Path2의 파일 단독.xlsm 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 송수신 시 상태를 나타냄(EQP→Local , Local→EQP 모두 해당)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 PC에서 경로를 제어할 Drive 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 기본적으로 C, D, E 3가지가 있으며 PC 내 Drive가 없는 Drive 선택하면 Local Path에 '파일없음'이라고 표시됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원하는 경로 추가하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,13 +484,71 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC00FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFCC00FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,8 +565,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -85,6 +605,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFCC00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -94,6 +620,4982 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>618566</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>349625</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>183692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="그림 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A269B253-A232-41DA-9762-541889F71448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5325037" y="24715694"/>
+          <a:ext cx="2420470" cy="1689763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>198475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>417067</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>146802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FB9AC9-6EDA-4205-B9C2-83291543080B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6799731" y="2887887"/>
+          <a:ext cx="6392042" cy="4654797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>251010</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>196743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>573742</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>131864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0435A016-03E6-49C5-856A-2EE10EBA090B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="251010" y="2886155"/>
+          <a:ext cx="6373908" cy="4641591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>331696</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>268943</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A82BE9-EC4D-4B75-B4B0-DC475302B1CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="331696" y="1416423"/>
+          <a:ext cx="1954306" cy="896471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>103093</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="타원 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF208CC-06FC-4C0A-9BDD-E41D6D7B8577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1205752" y="797859"/>
+          <a:ext cx="242047" cy="242047"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259976</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134473</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392D7D56-CB6F-4D25-8396-243F40BFA893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2277035" y="968188"/>
+          <a:ext cx="546850" cy="896471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>623047</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="타원 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8727F24D-6F1A-459D-BACB-6D69610CFB84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2398059" y="753035"/>
+          <a:ext cx="242047" cy="242048"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>129987</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>372034</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="타원 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8905EBC-3882-4942-94F2-7388F97901E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="129987" y="2294963"/>
+          <a:ext cx="242047" cy="242048"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>331695</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125505</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463990E2-CACE-45E5-A691-41E87313003B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="331695" y="2537012"/>
+          <a:ext cx="2483222" cy="3012142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>94129</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>62758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="타원 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4877A46-9896-46D8-8D21-677C8BDE0740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438835" y="3854829"/>
+          <a:ext cx="242047" cy="242047"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125507</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="직사각형 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F607E21D-F5AF-413B-A8F4-4346368322EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2814919" y="4500281"/>
+          <a:ext cx="1541928" cy="2850777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>237565</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>96374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>125505</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161368</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF1A2A2-E45E-48E7-BAD4-9F2A5D483C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4944036" y="768727"/>
+          <a:ext cx="1232645" cy="289112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Local GroupBox</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>614083</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>96374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502022</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161368</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F302AA-EF84-45A8-B406-73993CA313E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1958789" y="768727"/>
+          <a:ext cx="1232645" cy="289112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EQP GroupBox</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>421342</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>475130</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="직사각형 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F1A7C6-FE09-46B1-B234-020DAC4F6E29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4455460" y="3254188"/>
+          <a:ext cx="2070846" cy="753035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>578223</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>197225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147917</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>215155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="타원 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34466D13-4706-403E-B4F0-6D9C1D6C3105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5284694" y="3110754"/>
+          <a:ext cx="242047" cy="242048"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>421341</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>197225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>475130</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="직사각형 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BAF9898-A25A-4AA9-B5A7-5E0FF187CFD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4455459" y="1766049"/>
+          <a:ext cx="2070847" cy="259976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>170331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>640977</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>188262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="타원 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A859CEBD-CD2B-43FF-BA29-29BF670DB045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6450106" y="3980331"/>
+          <a:ext cx="242047" cy="242049"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>197223</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="직사각형 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB727C4-C692-44D6-93FF-1C7BB764E947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886635" y="1416423"/>
+          <a:ext cx="1470212" cy="896471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40342</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>282389</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>62758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="타원 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919BFE10-BDF5-4C82-8BF8-E00DAD9B1E45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3402107" y="3854829"/>
+          <a:ext cx="242047" cy="242047"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>398929</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="타원 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F7E717C-2B6F-40EC-A1DF-BE91E33B1B38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3518647" y="878541"/>
+          <a:ext cx="242047" cy="242048"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>421341</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>475130</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="직사각형 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89EF56D-9977-41D5-8CE4-A8000D1BC57B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4455459" y="4518212"/>
+          <a:ext cx="2070847" cy="2814916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>58271</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>300318</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>62759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="타원 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CF1639-0DE1-437C-9A5F-CDDB4BF3A868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5437095" y="3854829"/>
+          <a:ext cx="242047" cy="242048"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>215154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="타원 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E4CE33-0D32-4C96-9951-C4BACAFA194F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398930" y="8077201"/>
+          <a:ext cx="206188" cy="206188"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>439272</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>215154</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8096D16-5747-4EF0-A9D5-7078E5437A33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8507507" y="8588189"/>
+          <a:ext cx="3137647" cy="1150471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>215155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>206189</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="직사각형 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484CD523-B710-4693-AB31-A20DC544E2AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1658471" y="10076331"/>
+          <a:ext cx="717176" cy="215152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>443754</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>519953</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="그룹 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD590E0-419D-4285-9450-2330EC5D1204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="443754" y="9529482"/>
+          <a:ext cx="4782670" cy="1775012"/>
+          <a:chOff x="443754" y="9529482"/>
+          <a:chExt cx="4782670" cy="1775012"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="31" name="그림 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D400E4BD-9C17-405A-AB14-3D6DD19F494B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:srcRect t="7485" r="67813" b="73256"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="443754" y="9529482"/>
+            <a:ext cx="4053074" cy="1766047"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="직사각형 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E7B3A6-0818-453C-B272-4BD2C4C1B575}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="681318" y="10309413"/>
+            <a:ext cx="510988" cy="215153"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="직사각형 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049A3CDD-36B8-406E-ADBC-1C030C9A851F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3514165" y="9565342"/>
+            <a:ext cx="977152" cy="1739152"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="직선 화살표 연결선 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{509C64E0-BE16-4A10-800A-65D3CEFDC19C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="32" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1192306" y="10058400"/>
+            <a:ext cx="430305" cy="358590"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C9E5AAB-139E-4E8B-A5FC-E6534606A593}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="37" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2375647" y="9959789"/>
+            <a:ext cx="286870" cy="8964"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="직사각형 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1DD86F-3E07-489C-9DAC-310292898483}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2644589" y="9852214"/>
+            <a:ext cx="295834" cy="206186"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="45" name="직선 화살표 연결선 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03172665-464C-4AE3-92F4-914932F5E141}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4464424" y="9753599"/>
+            <a:ext cx="762000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>206188</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>188258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>505264</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>162292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="그림 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C8D1E7-1821-40D9-96AC-41D451C0E5F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="206188" y="12066493"/>
+          <a:ext cx="971429" cy="1542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>322730</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="그림 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65552D7-7E45-43A1-A9EE-03CA91B0EDE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect b="6481"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1443318" y="12057530"/>
+          <a:ext cx="2913530" cy="2205318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>170331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="TextBox 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B18841CF-8CB9-4D81-B745-AE05F4B68A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3316942" y="12048566"/>
+          <a:ext cx="762000" cy="313764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>EQP </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>등록</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>645458</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69156</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="그림 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6843AE7C-7F5A-4394-A240-71CEC95A093D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6024282" y="12030637"/>
+          <a:ext cx="1440756" cy="2241176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>179296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>430305</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="TextBox 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D7D81FF-CAAA-4E7B-979B-5D5CF611FD74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="12057531"/>
+          <a:ext cx="968187" cy="313764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>확장자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>등록</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>582707</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>188258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>302892</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="그림 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD9ABED-9D71-46C1-BD8F-EC97150029A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11340354" y="12066493"/>
+          <a:ext cx="3754303" cy="2160495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>170329</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>179296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466163</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E098DDD3-0589-4A6D-9B44-13CFF291227F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13617388" y="12057531"/>
+          <a:ext cx="968187" cy="313764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>단축키</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>223334</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>165664</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="그림 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B24897-B067-4397-88ED-E4790244EE09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9547413" y="15822706"/>
+          <a:ext cx="2105921" cy="1151782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>367555</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>449600</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>213369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="그림 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8291C97A-6772-45B6-A564-C3A3EAA749E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11797555" y="15822705"/>
+          <a:ext cx="2099104" cy="1199488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>528917</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>161366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>604148</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>206189</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="그림 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1051F1-0A63-46E0-AE8F-543F8503C2A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13975976" y="15849601"/>
+          <a:ext cx="2092290" cy="1165412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>349624</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>4020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>484095</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>157204</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="그림 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363B535E-1A0C-4ED5-8965-4E0C37042BFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11779624" y="16588726"/>
+          <a:ext cx="2151530" cy="1049654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>215154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="타원 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0FB5515-807D-406C-9A29-ECFA83DFF7AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398930" y="8077201"/>
+          <a:ext cx="206188" cy="206188"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>215154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="타원 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48926FBC-DC56-4880-9DB7-D096374BBBB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398930" y="8077201"/>
+          <a:ext cx="206188" cy="206188"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>215154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="타원 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D49592E-083D-48ED-AE3B-3481C84866B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398930" y="16145437"/>
+          <a:ext cx="206188" cy="206188"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>277905</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>150721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>555809</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>53790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="그림 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C846D68-C3BE-4951-ABE2-10AE49028F14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="982" t="25614" r="54139" b="57053"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1622611" y="18528368"/>
+          <a:ext cx="3639669" cy="1023657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>491032</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>46937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="그림 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C0EAC5-622E-410C-B9D5-F2FA871C84B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect t="4430" r="47126"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858001" y="20018188"/>
+          <a:ext cx="3045972" cy="4009337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>215154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="타원 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11243F82-58A7-46B3-AD38-BDE95CCEBE34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398930" y="18386613"/>
+          <a:ext cx="206188" cy="206188"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>528916</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>184344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="그림 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0B5DE7-3887-4FDE-B024-16C971BB1D22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3890681" y="20968448"/>
+          <a:ext cx="2277036" cy="955308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>645459</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>663390</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="직선 화살표 연결선 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F7C06C-A852-4161-B253-2A4B302FF15D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7368988" y="20421600"/>
+          <a:ext cx="690284" cy="815788"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>206189</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>71719</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="직선 화살표 연결선 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74AA227-A484-41E4-A0EA-1B200B7BA960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7602071" y="21309106"/>
+          <a:ext cx="528917" cy="53789"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>71720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466165</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="직선 화살표 연결선 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A136B38-CD8C-40A7-A4E9-77C7727B4CA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7700682" y="21362896"/>
+          <a:ext cx="833718" cy="1264022"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>394447</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>62755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="직선 화살표 연결선 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4926D113-33FC-4A52-9371-8DC6971199C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7790329" y="22698637"/>
+          <a:ext cx="295836" cy="179292"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>636494</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>206191</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="직선 화살표 연결선 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D24CB4-4E35-4DA8-9B5D-933376DC8413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8928847" y="21882847"/>
+          <a:ext cx="448235" cy="959226"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="직선 화살표 연결선 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265BCAF8-D855-4B9E-8581-BD2DEB777438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10192870" y="20305060"/>
+          <a:ext cx="502024" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="직선 화살표 연결선 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418C8071-5832-4085-9012-571801319A01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10192870" y="20538142"/>
+          <a:ext cx="502024" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>493061</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="직선 화살표 연결선 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8929874D-9772-48C0-AF49-81B2EA0C4D2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7216590" y="20349882"/>
+          <a:ext cx="206186" cy="170330"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>331696</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="직선 화살표 연결선 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86197F57-27D7-4EB7-8206-8DBEA9A2E672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7727578" y="20349882"/>
+          <a:ext cx="251010" cy="17930"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>215154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="타원 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7BAF1F-BABE-4FFA-B865-4BBEC3B60570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398930" y="20179554"/>
+          <a:ext cx="206188" cy="206188"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>90523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="그림 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5291CAB5-A8A8-45C3-8DB1-EB105A08DE62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8113059" y="24679835"/>
+          <a:ext cx="2689411" cy="1408335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>654425</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>71720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="직선 화살표 연결선 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3C5F5E-8D15-4281-9EF2-373CCA691EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6705601" y="25388047"/>
+          <a:ext cx="1488140" cy="8967"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>26895</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>170326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>604337</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="그림 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7B5C33-1F27-4F3C-8542-487B2831B45D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect l="1" t="20369" r="1667" b="57988"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="27064444"/>
+          <a:ext cx="3266854" cy="376520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125507</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>215151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="직사각형 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE269672-CC6C-4401-A399-17B61CFD23C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2814919" y="4249269"/>
+          <a:ext cx="1541928" cy="242049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40342</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>62758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>282389</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="타원 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0FFBBC-B2FC-4B73-ADC9-65683B75F97D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3402107" y="4096876"/>
+          <a:ext cx="242047" cy="242047"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>421341</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>475130</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="직사각형 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795A77E0-199D-4FE5-A5A2-08D59B49EDE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4455459" y="4258235"/>
+          <a:ext cx="2070847" cy="259977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>389966</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>17935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>632013</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="타원 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF72D34-FEEC-4851-AB5C-E2D4843EEAE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6441142" y="4276170"/>
+          <a:ext cx="242047" cy="242048"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>215154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="타원 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F244B515-06F6-44F6-AFBD-E0E39AFAFEB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398930" y="24661907"/>
+          <a:ext cx="206188" cy="206188"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358587</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="직사각형 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEB2706-455C-473D-88F2-09CCDA315285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="27082377"/>
+          <a:ext cx="1004046" cy="358588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>439269</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>528917</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="직사각형 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A4A1AB-077E-473B-B566-702001B0A7D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2456328" y="27082377"/>
+          <a:ext cx="2106707" cy="358588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>62750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="그림 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD83B16-5C43-4689-8FB0-FF4402379FF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect l="1" t="20369" r="67888" b="58504"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5593977" y="27180985"/>
+          <a:ext cx="1066799" cy="367556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3702</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="그림 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E8CEF5-1381-44A2-AA69-A5561A062CED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect l="31033" t="19338" r="1666" b="57988"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4491317" y="27862305"/>
+          <a:ext cx="2235914" cy="394447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>618565</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>115069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>45966</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="그림 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C4B2BB-62EF-46B5-BB91-724CC9687438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4652683" y="28802128"/>
+          <a:ext cx="5504329" cy="3068544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="직선 화살표 연결선 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FF27F6-5987-46AF-BA73-E2A138C3A91E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9045387" y="30802730"/>
+          <a:ext cx="1281954" cy="448235"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215154</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>77884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>277512</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>10667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="그림 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79BB979-9E7E-4398-B0B4-ADE5B24BF201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10300448" y="28764943"/>
+          <a:ext cx="5441182" cy="3070430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>26895</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>349623</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>143437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="직선 화살표 연결선 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBE68C0-E73C-4030-A329-336250E45E97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6078071" y="22026282"/>
+          <a:ext cx="995081" cy="753037"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>608046</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="그림 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19D941A-0A1A-4CB1-9F6A-9A8D0A4F951F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4527177" y="33070799"/>
+          <a:ext cx="5493810" cy="3299013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>170029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>64767</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>90516</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="그림 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942B6D0E-70C9-4AA2-BD17-DF5078366918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6167717" y="36477088"/>
+          <a:ext cx="3982344" cy="1265193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>206189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>412378</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="TextBox 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6EFEA2-85B5-47B3-A794-4E58722D6B47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7180730" y="36289130"/>
+          <a:ext cx="1972236" cy="313763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>삭제 아이템 미선택 인터락</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>195618</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>116540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47937</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>126146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="128" name="그림 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F787EA2-83B4-49FF-8A50-3019818DEB1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10280912" y="33285952"/>
+          <a:ext cx="4558790" cy="2699018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>591672</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="TextBox 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69713120-7B05-482C-926B-4701D5A01B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13366378" y="33787976"/>
+          <a:ext cx="3747246" cy="699247"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>Path3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>활성화 상태로 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+            <a:t>Path2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>의 파일 단독</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+            <a:t>.xlsm </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>선택 후 삭제 눌러도 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+            <a:t>Path3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>의 선택된 파일을 삭제하는 것으로 인식</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>215154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="타원 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC85642D-AF24-4D4B-95A5-276329F7DBF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398930" y="26678966"/>
+          <a:ext cx="206188" cy="206188"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="직사각형 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD6FCA91-BE6C-437E-B616-E3313471CAB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1667435" y="18556941"/>
+          <a:ext cx="3128684" cy="331694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>421342</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>204094</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="그림 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830ECB73-6D36-4D9C-A6C1-EAB2EBC26B68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="65496" t="3852" r="24231" b="74500"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="421342" y="38870966"/>
+          <a:ext cx="1127458" cy="1730187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,10 +5895,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9921FC81-D07D-40FD-BC52-B33AF2A57A53}">
+  <dimension ref="A1:R174"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="M38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="I44" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="I45" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="I46" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="I47" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B55" s="7"/>
+      <c r="C55" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C74" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C75" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C76" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C77" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C78" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C79" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B82" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B91" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C92" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C93" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C94" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B111" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C112" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C113" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C114" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B120" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C120" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K122" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K123" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C124" t="s">
+        <v>60</v>
+      </c>
+      <c r="E124" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K125" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K126" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H128" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="8:16" x14ac:dyDescent="0.4">
+      <c r="H145" t="s">
+        <v>67</v>
+      </c>
+      <c r="P145" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" spans="8:16" x14ac:dyDescent="0.4">
+      <c r="H146" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P146" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147" spans="8:16" x14ac:dyDescent="0.4">
+      <c r="H147" t="s">
+        <v>69</v>
+      </c>
+      <c r="P147" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="148" spans="8:16" x14ac:dyDescent="0.4">
+      <c r="P148" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B172" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C172" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C173" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D174" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0BC8B5-E5AA-4C5E-8E4A-1C0211A732CA}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -406,12 +6277,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF67905-9AC7-4269-AA98-30D78D3444FF}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5CE6A8-AA1A-4A67-9CD4-872C2AFAADAD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/manual.xlsx
+++ b/manual.xlsx
@@ -8,42 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijung\PycharmProjects\Load_Spectrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8DCAD6-02EF-4415-8EA8-96A2A8D91D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A1EADB-75BF-4911-BC59-D83F0F791CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D960881-CEBA-4B13-9696-05E483397A48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6D960881-CEBA-4B13-9696-05E483397A48}"/>
   </bookViews>
   <sheets>
-    <sheet name="Interface" sheetId="1" r:id="rId1"/>
-    <sheet name="파일 송수신" sheetId="4" r:id="rId2"/>
-    <sheet name="설정방법" sheetId="2" r:id="rId3"/>
-    <sheet name="예시" sheetId="3" r:id="rId4"/>
+    <sheet name="간편사용법" sheetId="5" r:id="rId1"/>
+    <sheet name="Interface" sheetId="1" r:id="rId2"/>
+    <sheet name="파일 송수신" sheetId="4" r:id="rId3"/>
+    <sheet name="설정" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="132">
   <si>
     <t>&lt;초기화면&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;경로 제어 예시&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -150,10 +137,6 @@
   </si>
   <si>
     <t>Line - EQP - Drive를 선택하여 설비로 FTP 접속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileZilla 설정 포함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -452,15 +435,229 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내 PC에서 경로를 제어할 Drive 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 기본적으로 C, D, E 3가지가 있으며 PC 내 Drive가 없는 Drive 선택하면 Local Path에 '파일없음'이라고 표시됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원하는 경로 추가하기</t>
+    <t>내 PC에서 경로를 제어할 Path 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 등록된 Drive Path가 표시됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 제어하려는 Drive Path를 클릭하면 하단에 파일 리스트 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 'Drive 등록' Push 버튼 눌러서 상단 Naming Rule에 맞게 사용자 정의 Path 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- ex) C:\0.path_test\Lot Raw Data 를 Raw Data라는 Name으로 Path에 추가할 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 실제 폴더 만들고 경로 복사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Drive 등록 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 프로그램 종료 후 실행 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 반드시 경로 앞에 #으로 구분지어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. PathName # (복사한 경로) 추가 &amp; 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제어하고 있는 Local 경로를 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Path 영역으로 현재 제어중인 경로의 파일 리스트를 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 폴더 더블클릭하면 해당 폴더로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 파일 더블클릭하면 파일 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Path 제어 부가 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 현재 Path 기준 뒤로가기, 앞으로가기, 새폴더, 삭제 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 뒤로가기의 경우 최대 Drive 경로까지 접근 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- ex) Drive에서 최초로 접근한 Path가 Drive 하위 경로일 때 뒤로가기 누르면 C:로 이동함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;경로 제어 화면&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11~18호기 Lot 옮기는 파일 송수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- FTP를 이용하여 파일을 송수신하므로 접속하려는 설비 PC에 FTP 설정 필요 : FileZilla Server 설정 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a. FileZilla FTP 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b. Listwidget 지원 Icon</t>
+  </si>
+  <si>
+    <t>b. Listwidget 지원 Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 설비 오른쪽 아래 트레이에서 FileZilla 아이콘 더블클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Edit → User 또는 아래 사람 그림 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Add → 계정명 입력 후 OK → Password 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Shared folders → Users 선택 → Add → Path 선택 → Files, Directories 권한 All Check </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ FileZilla Server에 해당 계정 설정되어 있어야 프로그램 사용 가능</t>
+  </si>
+  <si>
+    <t>0. 파이썬 프로그램에서 접속하고 있는 FTP ID / PW List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 이하 FileZilla Server 설정 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type(확장자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,12 +748,64 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -565,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,6 +847,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1988,8 +2267,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4455459" y="4518212"/>
-          <a:ext cx="2070847" cy="2814916"/>
+          <a:off x="4444701" y="4455459"/>
+          <a:ext cx="2065469" cy="2777264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2308,8 +2587,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="443754" y="9529482"/>
-          <a:ext cx="4782670" cy="1775012"/>
+          <a:off x="443754" y="9397701"/>
+          <a:ext cx="4770119" cy="1749911"/>
           <a:chOff x="443754" y="9529482"/>
           <a:chExt cx="4782670" cy="1775012"/>
         </a:xfrm>
@@ -5552,25 +5831,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>421342</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>98613</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>204094</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>20039</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>91829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>294012</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="132" name="그림 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830ECB73-6D36-4D9C-A6C1-EAB2EBC26B68}"/>
+        <xdr:cNvPr id="133" name="그림 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CC49CA-85E8-48B2-B9A4-A56C55AFED85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5579,14 +5858,2783 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect l="65496" t="3852" r="24231" b="74500"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="65636" t="4814" r="1" b="74771"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="421342" y="38870966"/>
-          <a:ext cx="1127458" cy="1730187"/>
+          <a:off x="4043399" y="39647249"/>
+          <a:ext cx="2956213" cy="1264531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>38502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>455404</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="직사각형 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA488ED-1BC1-482B-8B47-401C6902AB4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5661660" y="39814902"/>
+          <a:ext cx="828784" cy="258678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>649877</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>85996</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>176348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="그림 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8364AB7D-4459-4ED5-BE60-624480A46331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:srcRect l="20065" t="8654" r="61003" b="66657"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320437" y="39641416"/>
+          <a:ext cx="2253343" cy="1637212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>379373</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>183282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="직사각형 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA85CC4B-7688-4D51-A14A-DB8F5D75B154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1720493" y="40843602"/>
+          <a:ext cx="1571347" cy="296778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>84725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="그림 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DD18A3-B4F5-4D29-A53E-3E60D8FB2EBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:srcRect r="45172" b="56338"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7386469" y="40425901"/>
+          <a:ext cx="3087445" cy="1645463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22796</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>95409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>388555</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>8324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="146" name="그림 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291298D4-ABCC-4A9A-9122-85D0A29AD6E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:srcRect l="59472" t="7602" r="17864" b="76049"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10751756" y="39650829"/>
+          <a:ext cx="3047999" cy="1238795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>2642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>340658</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="직사각형 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5714EAC0-BBC0-4578-93D5-E29561E2707E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7325509" y="41688524"/>
+          <a:ext cx="3100443" cy="266299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>146573</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>128148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>172123</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="직사각형 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037B6A07-07D2-4840-8705-A2331963D4EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10875533" y="40567488"/>
+          <a:ext cx="2707790" cy="272126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>215154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="타원 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B226E919-98FA-43B2-962F-DB83B48925A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398930" y="37796546"/>
+          <a:ext cx="206188" cy="206188"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68579</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>215901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="150" name="그림 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26F73B6-7375-4FB7-B45B-CAA25B709786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="65851" t="6975" r="1523" b="69280"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739139" y="42214801"/>
+          <a:ext cx="2506981" cy="1313180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>215154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="타원 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{021CFA39-59DF-4B92-B0A1-E922ED65C15C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398930" y="41774186"/>
+          <a:ext cx="206188" cy="206188"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>634124</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87118</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>35753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="그림 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B977A348-98DB-4F83-9E6C-B8EDD0C733A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="634124" y="44683680"/>
+          <a:ext cx="2805794" cy="2420813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>65284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363351</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>1709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="154" name="그림 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B246DD-C2B4-494A-BAFF-8FF9BF80ADCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3832860" y="45808144"/>
+          <a:ext cx="3236091" cy="1262305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>199467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>199468</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="직선 화살표 연결선 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311C2CE0-755C-4074-9874-DD6E72D28126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3063240" y="46605267"/>
+          <a:ext cx="685800" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>215154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="타원 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{294E7710-B610-4CA3-884F-9EE9C5D31193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398930" y="43983986"/>
+          <a:ext cx="206188" cy="206188"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>213361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="159" name="그림 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97976049-6902-4427-AC05-18E0429176D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:srcRect t="24407" r="4164" b="52654"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5074921" y="47724061"/>
+          <a:ext cx="3101339" cy="289559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>580813</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142371</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>121534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="160" name="그림 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7C4438-2E35-4AEB-A55C-681726BF55FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1251373" y="48493680"/>
+          <a:ext cx="2914358" cy="2232274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>98668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>92834</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>72001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="161" name="그림 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DEAB6B0-97F2-4284-B37D-65B579152F94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="48493288"/>
+          <a:ext cx="3163694" cy="2404113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>67737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542247</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="162" name="그림 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8914BD3B-C36C-4717-83AF-5EAA3354E1D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7612380" y="48462357"/>
+          <a:ext cx="2988267" cy="2446864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>54689</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="163" name="직선 화살표 연결선 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84EB5F0D-0A03-4A08-B240-273AABBB1FBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1661160" y="50116740"/>
+          <a:ext cx="2773680" cy="100409"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>662941</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335281</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="직사각형 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B522C23-E4AA-4F0E-B862-723A5E255429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333501" y="50124360"/>
+          <a:ext cx="342900" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>411481</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83821</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="직사각형 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD011C19-B360-457E-9016-F250B6ABC67E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4434841" y="50208180"/>
+          <a:ext cx="342900" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>123270</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="직선 화살표 연결선 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7480208-6F5D-4C7B-BFED-A0E7F38AF949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4777740" y="50048160"/>
+          <a:ext cx="2918460" cy="237570"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621194</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>5851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D74495C4-8F34-4877-9715-8E921A2738A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2277716" y="5826070"/>
+          <a:ext cx="3851415" cy="1841194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60319</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>384729</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9FC4E3B-1C43-4EC5-A903-C2DF0DF456BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="24013" t="19261" r="64313" b="67667"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6529036" y="1248555"/>
+          <a:ext cx="1699323" cy="1057738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>187778</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441877</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>173169</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0249DEA5-6F66-41F1-9675-A0A776045608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="81533" t="84530" r="5053"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2530928" y="1285877"/>
+          <a:ext cx="1841047" cy="1192342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>559905</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B00090D-E7DC-491D-97B7-5773A9BC2072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="23857" t="19619" r="66915" b="72406"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8403535" y="1283803"/>
+          <a:ext cx="1692966" cy="809921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>496957</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852CDD30-9887-4FA8-9367-D620279C2AFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9400761" y="1681370"/>
+          <a:ext cx="314739" cy="347869"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314740</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68676FE2-188F-4220-B6D8-4BD606DD9679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352261" y="3213025"/>
+          <a:ext cx="3743740" cy="1927182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>149089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>422413</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBA8EDD-6AAD-482F-ABDC-242AF7A30AD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5060673" y="4497459"/>
+          <a:ext cx="455544" cy="182216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>405846</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>182221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>612912</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15842E5-80F7-4B37-8746-3BB8135B9E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3437281" y="4323525"/>
+          <a:ext cx="1581979" cy="198780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438979</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>579783</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>141983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E60B56-443E-4601-BA00-574249B77FE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6220240" y="3155673"/>
+          <a:ext cx="4265543" cy="1955875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>662607</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>132524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446E3ED7-F0FF-4D6B-B450-576DCF1C1901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7818781" y="3652633"/>
+          <a:ext cx="1093306" cy="157367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>405849</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>163679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>306457</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>198832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C293ECBF-EE6B-446E-8375-3900E5E6A181}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6874566" y="5754440"/>
+          <a:ext cx="4025347" cy="3141131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>115954</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>41415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>629479</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="직사각형 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A8B0B3-A658-46D3-8503-EAA8C2DB9272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2459932" y="6253372"/>
+          <a:ext cx="513525" cy="132519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>115954</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>99393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>530088</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="직사각형 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC9CA9A-9F15-4A38-A989-BA9C71C3A660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3147389" y="7346676"/>
+          <a:ext cx="414134" cy="132520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24845</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>82828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>298174</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="직사각형 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F3DF8A-1925-4B18-A5D9-94E0CF8E34C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5118649" y="6501850"/>
+          <a:ext cx="273329" cy="124237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>339586</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>188306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>636163</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>59529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1F50EB-A5BB-4D47-BF4A-A6D4D4D2C57F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620499" y="5572002"/>
+          <a:ext cx="4421316" cy="2977202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>455540</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>115959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>530087</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>74542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="직사각형 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E151289A-174A-45CE-B077-6472A4FDB03B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7611714" y="8191502"/>
+          <a:ext cx="762003" cy="165649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>538370</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438978</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="직사각형 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD409A9B-C708-4491-BCA8-4C1CE4ED8BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="8680176"/>
+          <a:ext cx="588065" cy="223628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>670891</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>91110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>596348</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="직사각형 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C73D7F-9F1D-412A-8D40-60E9708300F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14014174" y="5888936"/>
+          <a:ext cx="612913" cy="1325215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>372717</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>8284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>496956</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="직사각형 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D33079D-6B9A-444F-83B8-8F9E729F39DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11653630" y="8083827"/>
+          <a:ext cx="811696" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>405848</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289892</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D71C24AE-6CEE-4823-A8CF-E62E2B618C72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6187109" y="6568109"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>306457</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C0689B-CD9D-4BD8-B8B0-2276C277A6B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10899914" y="6568109"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>206191</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>17931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>412379</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465EA760-2D23-409A-96BC-CD1CF1501FF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3433485" y="12568519"/>
+          <a:ext cx="206188" cy="206188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>206190</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>416300</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1FEB5FD-8A05-4DD9-BF8B-C87B088158F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3433484" y="12819530"/>
+          <a:ext cx="210110" cy="179294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>215152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B218E30-A3F0-4C74-AE95-1E294B9BDA31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3442447" y="13025718"/>
+          <a:ext cx="188258" cy="188258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215155</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>35861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>385483</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>206189</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33" descr="텍스트, 명함, 벡터그래픽이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53B4C83-00B0-44BC-AC65-298379A75ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3442449" y="13258802"/>
+          <a:ext cx="170328" cy="170328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>206189</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>376519</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C344B4-FC6A-434E-B2DC-E78642539F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3433483" y="13473953"/>
+          <a:ext cx="170330" cy="170330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361092</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>215154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D41DDE0-2F9B-40F7-B13B-B2BB55F0D0C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3442447" y="13707036"/>
+          <a:ext cx="145939" cy="179294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>197227</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>385487</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>179296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131BAABD-E1D3-4E38-A9F8-967AB5566D68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3424521" y="14334565"/>
+          <a:ext cx="188260" cy="188260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5894,53 +8942,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F290DE-6907-4C44-B4E4-F5B7FE0B14FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9921FC81-D07D-40FD-BC52-B33AF2A57A53}">
-  <dimension ref="A1:R174"/>
+  <dimension ref="A1:R219"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -5948,310 +9011,388 @@
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
       <c r="M37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.4">
       <c r="M38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.4">
       <c r="I44" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.4">
       <c r="I45" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.4">
       <c r="I46" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.4">
       <c r="I47" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B54" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B55" s="7"/>
       <c r="C55" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C67" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R67" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R68" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C69" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B73" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C74" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C75" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C76" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C77" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C78" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C79" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B91" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q91" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C92" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q92" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C93" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C94" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B111" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C112" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C113" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C114" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B120" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C120" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.4">
       <c r="K122" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.4">
       <c r="K123" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C124" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E124" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.4">
       <c r="K125" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.4">
       <c r="K126" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.4">
       <c r="H128" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="145" spans="8:16" x14ac:dyDescent="0.4">
       <c r="H145" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P145" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146" spans="8:16" x14ac:dyDescent="0.4">
       <c r="H146" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="147" spans="8:16" x14ac:dyDescent="0.4">
       <c r="H147" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="148" spans="8:16" x14ac:dyDescent="0.4">
       <c r="P148" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B172" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C172" t="s">
         <v>75</v>
       </c>
-      <c r="C172" t="s">
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C173" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C174" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C173" s="2" t="s">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C175" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D174" t="s">
+    <row r="177" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C177" s="10" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="179" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C179" t="s">
+        <v>80</v>
+      </c>
+      <c r="G179" t="s">
+        <v>81</v>
+      </c>
+      <c r="L179" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="180" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="L180" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="190" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B190" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C190" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B200" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C200" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C201" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C202" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B216" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C216" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C217" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C218" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C219" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -6262,34 +9403,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0BC8B5-E5AA-4C5E-8E4A-1C0211A732CA}">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF67905-9AC7-4269-AA98-30D78D3444FF}">
-  <dimension ref="B3"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>12</v>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -6299,16 +9425,203 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5CE6A8-AA1A-4A67-9CD4-872C2AFAADAD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF67905-9AC7-4269-AA98-30D78D3444FF}">
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.69921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C5" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C6" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C12" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C55" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C56" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C57" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="17"/>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C58" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="17"/>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C59" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C60" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C61" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C62" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C63" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C64" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C65" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C66" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C67" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D63:D67"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>